--- a/rafett.xlsx
+++ b/rafett.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
-  <si>
-    <t>Product number</t>
-  </si>
-  <si>
-    <t>HEFR_MITPZ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>P 718 x</t>
   </si>
@@ -157,9 +151,6 @@
   </si>
   <si>
     <t>ACD8103E</t>
-  </si>
-  <si>
-    <t>zp 502</t>
   </si>
 </sst>
 </file>
@@ -498,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,15 +638,15 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,22 +681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="24" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
